--- a/DCF Models/TXN.xlsx
+++ b/DCF Models/TXN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Fiduciary\investingModels\DCF Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F16CC1-261F-4E96-ADE0-229941F81C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4565568-C1D9-410B-AFE1-74747B7C5C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19590" yWindow="4710" windowWidth="32700" windowHeight="15045" activeTab="1" xr2:uid="{2EC0F4CB-CC56-4207-8108-7C832533A8D8}"/>
+    <workbookView xWindow="16545" yWindow="6030" windowWidth="27045" windowHeight="15045" xr2:uid="{2EC0F4CB-CC56-4207-8108-7C832533A8D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
   <si>
     <t>Price</t>
   </si>
@@ -192,6 +192,18 @@
   </si>
   <si>
     <t>CF Depreciation</t>
+  </si>
+  <si>
+    <t>We have made and will continue to make significant investments in manufacturing capacity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We subcontract a portion of our wafer fabrication and assembly and testing of our products, and we depend on third parties to provide advanced logic manufacturing process technology development. We do not have long-term contracts with all of these suppliers, and the number of alternate suppliers is limited. Reliance on these suppliers involves risks, including possible shortages of capacity in periods of high demand, suppliers’ inability to develop and deliver advanced logic manufacturing process technology in a timely, cost-effective, and appropriate manner, the possibility of suppliers’ imposition of increased costs on us and the unauthorized disclosure or use of our intellectual property. </t>
+  </si>
+  <si>
+    <t>We expect to continue to maintain sufficient internal manufacturing capacity to meet the majority of our production needs and to obtain manufacturing equipment to support new technology developments and revenue growth. In 2022, we sourced about 80% of our total wafers and about 60% of our assembly/test production internally.</t>
+  </si>
+  <si>
+    <t>With our planned capacity expansions, we expect these percentages to increase. To supplement our internal manufacturing capacity, we selectively use the capacity of outside suppliers, commonly known as foundries and subcontractors.</t>
   </si>
 </sst>
 </file>
@@ -252,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -270,15 +282,18 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -748,10 +763,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{550DD50C-C6AD-42B7-B8F2-B9DA58381265}">
-  <dimension ref="B1:N13"/>
+  <dimension ref="B1:N25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -801,6 +816,9 @@
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>55</v>
+      </c>
       <c r="M7" t="s">
         <v>2</v>
       </c>
@@ -817,7 +835,19 @@
         <v>9067</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
       <c r="M9" t="s">
         <v>4</v>
       </c>
@@ -826,6 +856,16 @@
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
       <c r="M10" t="s">
         <v>5</v>
       </c>
@@ -834,7 +874,29 @@
         <v>156055.80000000002</v>
       </c>
     </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+    </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
       <c r="M12" t="s">
         <v>51</v>
       </c>
@@ -844,6 +906,16 @@
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
       <c r="M13" t="s">
         <v>52</v>
       </c>
@@ -852,7 +924,148 @@
         <v>146.82271084967829</v>
       </c>
     </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+    </row>
+    <row r="18" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+    </row>
+    <row r="23" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+    </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B9:K16"/>
+    <mergeCell ref="B18:K21"/>
+    <mergeCell ref="B23:K25"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
@@ -862,11 +1075,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{430C4823-B1D5-4075-A061-9C811CDAD08D}">
   <dimension ref="A1:HJ44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="Q8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N26" sqref="N26"/>
+      <selection pane="bottomRight" activeCell="AH35" sqref="Y35:AH35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1339,43 +1552,43 @@
         <v>20028</v>
       </c>
       <c r="Y3" s="1">
-        <f>X3*(1+Y35)</f>
+        <f t="shared" ref="Y3:AH3" si="0">X3*(1+Y35)</f>
         <v>21730.38</v>
       </c>
       <c r="Z3" s="1">
-        <f>Y3*(1+Z35)</f>
+        <f t="shared" si="0"/>
         <v>23468.810400000002</v>
       </c>
       <c r="AA3" s="1">
-        <f>Z3*(1+AA35)</f>
+        <f t="shared" si="0"/>
         <v>25228.97118</v>
       </c>
       <c r="AB3" s="1">
-        <f>AA3*(1+AB35)</f>
+        <f t="shared" si="0"/>
         <v>26994.999162600001</v>
       </c>
       <c r="AC3" s="1">
-        <f>AB3*(1+AC35)</f>
+        <f t="shared" si="0"/>
         <v>28749.674108168998</v>
       </c>
       <c r="AD3" s="1">
-        <f>AC3*(1+AD35)</f>
+        <f t="shared" si="0"/>
         <v>30330.906184118292</v>
       </c>
       <c r="AE3" s="1">
-        <f>AD3*(1+AE35)</f>
+        <f t="shared" si="0"/>
         <v>31999.106024244797</v>
       </c>
       <c r="AF3" s="1">
-        <f>AE3*(1+AF35)</f>
+        <f t="shared" si="0"/>
         <v>33759.056855578259</v>
       </c>
       <c r="AG3" s="1">
-        <f>AF3*(1+AG35)</f>
+        <f t="shared" si="0"/>
         <v>35615.804982635062</v>
       </c>
       <c r="AH3" s="1">
-        <f>AG3*(1+AH35)</f>
+        <f t="shared" si="0"/>
         <v>37574.674256679988</v>
       </c>
       <c r="AI3" s="1"/>
@@ -1551,73 +1764,73 @@
         <v>37</v>
       </c>
       <c r="C5" s="4">
-        <f t="shared" ref="C5:M5" si="0">+C3-C4</f>
+        <f t="shared" ref="C5:M5" si="1">+C3-C4</f>
         <v>2082</v>
       </c>
       <c r="D5" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2453</v>
       </c>
       <c r="E5" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2646</v>
       </c>
       <c r="F5" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2797</v>
       </c>
       <c r="G5" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3077</v>
       </c>
       <c r="H5" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3152</v>
       </c>
       <c r="I5" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3350</v>
       </c>
       <c r="J5" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3442</v>
       </c>
       <c r="K5" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3625</v>
       </c>
       <c r="L5" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3617</v>
       </c>
       <c r="M5" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3087</v>
       </c>
       <c r="O5" s="10"/>
       <c r="P5" s="10"/>
       <c r="Q5" s="4">
-        <f t="shared" ref="Q5:V5" si="1">+Q3-Q4</f>
+        <f t="shared" ref="Q5:V5" si="2">+Q3-Q4</f>
         <v>7560</v>
       </c>
       <c r="R5" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8240</v>
       </c>
       <c r="S5" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9614</v>
       </c>
       <c r="T5" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10277</v>
       </c>
       <c r="U5" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9164</v>
       </c>
       <c r="V5" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9269</v>
       </c>
       <c r="W5" s="4">
@@ -1629,43 +1842,43 @@
         <v>13771</v>
       </c>
       <c r="Y5" s="4">
-        <f>Y3*Y30</f>
+        <f t="shared" ref="Y5:AH5" si="3">Y3*Y30</f>
         <v>14776.658400000002</v>
       </c>
       <c r="Z5" s="4">
-        <f>Z3*Z30</f>
+        <f t="shared" si="3"/>
         <v>15724.102968000003</v>
       </c>
       <c r="AA5" s="4">
-        <f>AA3*AA30</f>
+        <f t="shared" si="3"/>
         <v>16651.120978800001</v>
       </c>
       <c r="AB5" s="4">
-        <f>AB3*AB30</f>
+        <f t="shared" si="3"/>
         <v>17546.749455690002</v>
       </c>
       <c r="AC5" s="4">
-        <f>AC3*AC30</f>
+        <f t="shared" si="3"/>
         <v>18687.28817030985</v>
       </c>
       <c r="AD5" s="4">
-        <f>AD3*AD30</f>
+        <f t="shared" si="3"/>
         <v>19715.089019676889</v>
       </c>
       <c r="AE5" s="4">
-        <f>AE3*AE30</f>
+        <f t="shared" si="3"/>
         <v>20799.418915759117</v>
       </c>
       <c r="AF5" s="4">
-        <f>AF3*AF30</f>
+        <f t="shared" si="3"/>
         <v>21943.386956125869</v>
       </c>
       <c r="AG5" s="4">
-        <f>AG3*AG30</f>
+        <f t="shared" si="3"/>
         <v>23150.273238712791</v>
       </c>
       <c r="AH5" s="4">
-        <f>AH3*AH30</f>
+        <f t="shared" si="3"/>
         <v>24423.538266841992</v>
       </c>
       <c r="AI5" s="4"/>
@@ -2070,39 +2283,39 @@
         <v>21</v>
       </c>
       <c r="C9" s="1">
-        <f>+C7+C6+C4</f>
+        <f t="shared" ref="C9:K9" si="4">+C7+C6+C4</f>
         <v>2011</v>
       </c>
       <c r="D9" s="1">
-        <f>+D7+D6+D4</f>
+        <f t="shared" si="4"/>
         <v>2208</v>
       </c>
       <c r="E9" s="1">
-        <f>+E7+E6+E4</f>
+        <f t="shared" si="4"/>
         <v>2263</v>
       </c>
       <c r="F9" s="1">
-        <f>+F7+F6+F4</f>
+        <f t="shared" si="4"/>
         <v>2350</v>
       </c>
       <c r="G9" s="1">
-        <f>+G7+G6+G4</f>
+        <f t="shared" si="4"/>
         <v>2367</v>
       </c>
       <c r="H9" s="1">
-        <f>+H7+H6+H4</f>
+        <f t="shared" si="4"/>
         <v>2338</v>
       </c>
       <c r="I9" s="1">
-        <f>+I7+I6+I4</f>
+        <f t="shared" si="4"/>
         <v>2329</v>
       </c>
       <c r="J9" s="1">
-        <f>+J7+J6+J4</f>
+        <f t="shared" si="4"/>
         <v>2342</v>
       </c>
       <c r="K9" s="1">
-        <f>+K7+K6+K4</f>
+        <f t="shared" si="4"/>
         <v>2489</v>
       </c>
       <c r="L9" s="1">
@@ -2114,35 +2327,35 @@
         <v>2494</v>
       </c>
       <c r="Q9" s="1">
-        <f>+Q4+Q6+Q7+Q8</f>
+        <f t="shared" ref="Q9:X9" si="5">+Q4+Q6+Q7+Q8</f>
         <v>8726</v>
       </c>
       <c r="R9" s="1">
-        <f>+R4+R6+R7+R8</f>
+        <f t="shared" si="5"/>
         <v>8571</v>
       </c>
       <c r="S9" s="1">
-        <f>+S4+S6+S7+S8</f>
+        <f t="shared" si="5"/>
         <v>8878</v>
       </c>
       <c r="T9" s="1">
-        <f>+T4+T6+T7+T8</f>
+        <f t="shared" si="5"/>
         <v>9071</v>
       </c>
       <c r="U9" s="1">
-        <f>+U4+U6+U7+U8</f>
+        <f t="shared" si="5"/>
         <v>8660</v>
       </c>
       <c r="V9" s="1">
-        <f>+V4+V6+V7+V8</f>
+        <f t="shared" si="5"/>
         <v>8567</v>
       </c>
       <c r="W9" s="1">
-        <f>+W4+W6+W7+W8</f>
+        <f t="shared" si="5"/>
         <v>9384</v>
       </c>
       <c r="X9" s="1">
-        <f>+X4+X6+X7+X8</f>
+        <f t="shared" si="5"/>
         <v>9888</v>
       </c>
       <c r="Y9" s="1"/>
@@ -2208,39 +2421,39 @@
         <v>22</v>
       </c>
       <c r="C10" s="4">
-        <f t="shared" ref="C10:K10" si="2">+C3-C9</f>
+        <f t="shared" ref="C10:K10" si="6">+C3-C9</f>
         <v>1228</v>
       </c>
       <c r="D10" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1609</v>
       </c>
       <c r="E10" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1813</v>
       </c>
       <c r="F10" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1939</v>
       </c>
       <c r="G10" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2213</v>
       </c>
       <c r="H10" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2305</v>
       </c>
       <c r="I10" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2503</v>
       </c>
       <c r="J10" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2563</v>
       </c>
       <c r="K10" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2723</v>
       </c>
       <c r="L10" s="4">
@@ -2254,27 +2467,27 @@
       <c r="O10" s="10"/>
       <c r="P10" s="10"/>
       <c r="Q10" s="4">
-        <f t="shared" ref="Q10:V10" si="3">+Q3-Q9</f>
+        <f t="shared" ref="Q10:V10" si="7">+Q3-Q9</f>
         <v>4274</v>
       </c>
       <c r="R10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>4799</v>
       </c>
       <c r="S10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>6083</v>
       </c>
       <c r="T10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>6713</v>
       </c>
       <c r="U10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>5723</v>
       </c>
       <c r="V10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>5894</v>
       </c>
       <c r="W10" s="4">
@@ -2286,43 +2499,43 @@
         <v>10140</v>
       </c>
       <c r="Y10" s="4">
-        <f>Y3*Y31</f>
+        <f t="shared" ref="Y10:AH10" si="8">Y3*Y31</f>
         <v>10865.19</v>
       </c>
       <c r="Z10" s="4">
-        <f>Z3*Z31</f>
+        <f t="shared" si="8"/>
         <v>11265.028992000001</v>
       </c>
       <c r="AA10" s="4">
-        <f>AA3*AA31</f>
+        <f t="shared" si="8"/>
         <v>11605.3267428</v>
       </c>
       <c r="AB10" s="4">
-        <f>AB3*AB31</f>
+        <f t="shared" si="8"/>
         <v>11877.799631544001</v>
       </c>
       <c r="AC10" s="4">
-        <f>AC3*AC31</f>
+        <f t="shared" si="8"/>
         <v>12074.863125430978</v>
       </c>
       <c r="AD10" s="4">
-        <f>AD3*AD31</f>
+        <f t="shared" si="8"/>
         <v>12738.980597329682</v>
       </c>
       <c r="AE10" s="4">
-        <f>AE3*AE31</f>
+        <f t="shared" si="8"/>
         <v>13439.624530182815</v>
       </c>
       <c r="AF10" s="4">
-        <f>AF3*AF31</f>
+        <f t="shared" si="8"/>
         <v>14178.803879342868</v>
       </c>
       <c r="AG10" s="4">
-        <f>AG3*AG31</f>
+        <f t="shared" si="8"/>
         <v>14958.638092706726</v>
       </c>
       <c r="AH10" s="4">
-        <f>AH3*AH31</f>
+        <f t="shared" si="8"/>
         <v>15781.363187805595</v>
       </c>
       <c r="AI10" s="4"/>
@@ -2493,157 +2706,155 @@
       <c r="CB11" s="1"/>
       <c r="CC11" s="1"/>
     </row>
-    <row r="12" spans="2:218" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="18" t="s">
+    <row r="12" spans="2:218" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="1">
         <v>48</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="1">
         <v>49</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="1">
         <v>48</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="1">
         <v>46</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="1">
         <v>44</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="1">
         <v>45</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I12" s="1">
         <v>49</v>
       </c>
-      <c r="J12" s="17">
+      <c r="J12" s="1">
         <v>52</v>
       </c>
-      <c r="K12" s="17">
+      <c r="K12" s="1">
         <v>49</v>
       </c>
-      <c r="L12" s="17">
+      <c r="L12" s="1">
         <v>53</v>
       </c>
       <c r="M12" s="1">
         <f>X12-L12-K12-J12</f>
         <v>60</v>
       </c>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="17">
+      <c r="Q12" s="1">
         <v>90</v>
       </c>
-      <c r="R12" s="17">
+      <c r="R12" s="1">
         <v>80</v>
       </c>
-      <c r="S12" s="17">
+      <c r="S12" s="1">
         <v>78</v>
       </c>
-      <c r="T12" s="17">
+      <c r="T12" s="1">
         <v>125</v>
       </c>
-      <c r="U12" s="17">
+      <c r="U12" s="1">
         <v>170</v>
       </c>
-      <c r="V12" s="17">
+      <c r="V12" s="1">
         <v>190</v>
       </c>
-      <c r="W12" s="17">
+      <c r="W12" s="1">
         <v>184</v>
       </c>
-      <c r="X12" s="17">
+      <c r="X12" s="1">
         <v>214</v>
       </c>
-      <c r="Y12" s="17">
+      <c r="Y12" s="1">
         <f>X23*-Y39</f>
         <v>38.924999999999997</v>
       </c>
-      <c r="Z12" s="17">
+      <c r="Z12" s="1">
         <f>Y23*-Z39</f>
         <v>-400.49327475000001</v>
       </c>
-      <c r="AA12" s="17">
+      <c r="AA12" s="1">
         <f>Z23*-AA39</f>
         <v>-854.57372898324388</v>
       </c>
-      <c r="AB12" s="17">
-        <f>AA23*-AB39</f>
+      <c r="AB12" s="1">
+        <f t="shared" ref="AB12:AH12" si="9">AA23*-AB39</f>
         <v>-1336.7718772412554</v>
       </c>
-      <c r="AC12" s="17">
-        <f>AB23*-AC39</f>
+      <c r="AC12" s="1">
+        <f t="shared" si="9"/>
         <v>-1722.1890149723172</v>
       </c>
-      <c r="AD12" s="17">
-        <f>AC23*-AD39</f>
+      <c r="AD12" s="1">
+        <f t="shared" si="9"/>
         <v>-2069.730791026192</v>
       </c>
-      <c r="AE12" s="17">
-        <f>AD23*-AE39</f>
+      <c r="AE12" s="1">
+        <f t="shared" si="9"/>
         <v>-2563.7864247202147</v>
       </c>
-      <c r="AF12" s="17">
-        <f>AE23*-AF39</f>
+      <c r="AF12" s="1">
+        <f t="shared" si="9"/>
         <v>-3097.7002227031671</v>
       </c>
-      <c r="AG12" s="17">
-        <f>AF23*-AG39</f>
+      <c r="AG12" s="1">
+        <f t="shared" si="9"/>
         <v>-3674.0875908076778</v>
       </c>
-      <c r="AH12" s="17">
-        <f>AG23*-AH39</f>
+      <c r="AH12" s="1">
+        <f t="shared" si="9"/>
         <v>-4295.7219014239272</v>
       </c>
-      <c r="AI12" s="17"/>
-      <c r="AJ12" s="17"/>
-      <c r="AK12" s="17"/>
-      <c r="AL12" s="17"/>
-      <c r="AM12" s="17"/>
-      <c r="AN12" s="17"/>
-      <c r="AO12" s="17"/>
-      <c r="AP12" s="17"/>
-      <c r="AQ12" s="17"/>
-      <c r="AR12" s="17"/>
-      <c r="AS12" s="17"/>
-      <c r="AT12" s="17"/>
-      <c r="AU12" s="17"/>
-      <c r="AV12" s="17"/>
-      <c r="AW12" s="17"/>
-      <c r="AX12" s="17"/>
-      <c r="AY12" s="17"/>
-      <c r="AZ12" s="17"/>
-      <c r="BA12" s="17"/>
-      <c r="BB12" s="17"/>
-      <c r="BC12" s="17"/>
-      <c r="BD12" s="17"/>
-      <c r="BE12" s="17"/>
-      <c r="BF12" s="17"/>
-      <c r="BG12" s="17"/>
-      <c r="BH12" s="17"/>
-      <c r="BI12" s="17"/>
-      <c r="BJ12" s="17"/>
-      <c r="BK12" s="17"/>
-      <c r="BL12" s="17"/>
-      <c r="BM12" s="17"/>
-      <c r="BN12" s="17"/>
-      <c r="BO12" s="17"/>
-      <c r="BP12" s="17"/>
-      <c r="BQ12" s="17"/>
-      <c r="BR12" s="17"/>
-      <c r="BS12" s="17"/>
-      <c r="BT12" s="17"/>
-      <c r="BU12" s="17"/>
-      <c r="BV12" s="17"/>
-      <c r="BW12" s="17"/>
-      <c r="BX12" s="17"/>
-      <c r="BY12" s="17"/>
-      <c r="BZ12" s="17"/>
-      <c r="CA12" s="17"/>
-      <c r="CB12" s="17"/>
-      <c r="CC12" s="17"/>
+      <c r="AI12" s="1"/>
+      <c r="AJ12" s="1"/>
+      <c r="AK12" s="1"/>
+      <c r="AL12" s="1"/>
+      <c r="AM12" s="1"/>
+      <c r="AN12" s="1"/>
+      <c r="AO12" s="1"/>
+      <c r="AP12" s="1"/>
+      <c r="AQ12" s="1"/>
+      <c r="AR12" s="1"/>
+      <c r="AS12" s="1"/>
+      <c r="AT12" s="1"/>
+      <c r="AU12" s="1"/>
+      <c r="AV12" s="1"/>
+      <c r="AW12" s="1"/>
+      <c r="AX12" s="1"/>
+      <c r="AY12" s="1"/>
+      <c r="AZ12" s="1"/>
+      <c r="BA12" s="1"/>
+      <c r="BB12" s="1"/>
+      <c r="BC12" s="1"/>
+      <c r="BD12" s="1"/>
+      <c r="BE12" s="1"/>
+      <c r="BF12" s="1"/>
+      <c r="BG12" s="1"/>
+      <c r="BH12" s="1"/>
+      <c r="BI12" s="1"/>
+      <c r="BJ12" s="1"/>
+      <c r="BK12" s="1"/>
+      <c r="BL12" s="1"/>
+      <c r="BM12" s="1"/>
+      <c r="BN12" s="1"/>
+      <c r="BO12" s="1"/>
+      <c r="BP12" s="1"/>
+      <c r="BQ12" s="1"/>
+      <c r="BR12" s="1"/>
+      <c r="BS12" s="1"/>
+      <c r="BT12" s="1"/>
+      <c r="BU12" s="1"/>
+      <c r="BV12" s="1"/>
+      <c r="BW12" s="1"/>
+      <c r="BX12" s="1"/>
+      <c r="BY12" s="1"/>
+      <c r="BZ12" s="1"/>
+      <c r="CA12" s="1"/>
+      <c r="CB12" s="1"/>
+      <c r="CC12" s="1"/>
     </row>
     <row r="13" spans="2:218" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
@@ -2654,69 +2865,69 @@
         <v>1279</v>
       </c>
       <c r="D13" s="4">
-        <f t="shared" ref="D13:M13" si="4">D10-D11-D12</f>
+        <f t="shared" ref="D13:M13" si="10">D10-D11-D12</f>
         <v>1587</v>
       </c>
       <c r="E13" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1927</v>
       </c>
       <c r="F13" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1939</v>
       </c>
       <c r="G13" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>2242</v>
       </c>
       <c r="H13" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>2275</v>
       </c>
       <c r="I13" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>2463</v>
       </c>
       <c r="J13" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>2526</v>
       </c>
       <c r="K13" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>2681</v>
       </c>
       <c r="L13" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>2658</v>
       </c>
       <c r="M13" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>2167</v>
       </c>
       <c r="O13" s="10"/>
       <c r="P13" s="10"/>
       <c r="Q13" s="4">
-        <f t="shared" ref="Q13:V13" si="5">+Q10-Q11-Q12</f>
+        <f t="shared" ref="Q13:V13" si="11">+Q10-Q11-Q12</f>
         <v>4216</v>
       </c>
       <c r="R13" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>4930</v>
       </c>
       <c r="S13" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>6080</v>
       </c>
       <c r="T13" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>6686</v>
       </c>
       <c r="U13" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>5728</v>
       </c>
       <c r="V13" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>6017</v>
       </c>
       <c r="W13" s="4">
@@ -2732,39 +2943,39 @@
         <v>10826.265000000001</v>
       </c>
       <c r="Z13" s="4">
-        <f t="shared" ref="Z13:AH13" si="6">Z10-Z12</f>
+        <f t="shared" ref="Z13:AH13" si="12">Z10-Z12</f>
         <v>11665.522266750002</v>
       </c>
       <c r="AA13" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>12459.900471783243</v>
       </c>
       <c r="AB13" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>13214.571508785257</v>
       </c>
       <c r="AC13" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>13797.052140403295</v>
       </c>
       <c r="AD13" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>14808.711388355874</v>
       </c>
       <c r="AE13" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>16003.410954903029</v>
       </c>
       <c r="AF13" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>17276.504102046034</v>
       </c>
       <c r="AG13" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>18632.725683514403</v>
       </c>
       <c r="AH13" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>20077.08508922952</v>
       </c>
       <c r="AI13" s="4"/>
@@ -2815,238 +3026,236 @@
       <c r="CB13" s="4"/>
       <c r="CC13" s="4"/>
     </row>
-    <row r="14" spans="2:218" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="18" t="s">
+    <row r="14" spans="2:218" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="1">
         <v>-101</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="1">
         <v>234</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="1">
         <v>239</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="1">
         <v>186</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="1">
         <v>311</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H14" s="1">
         <v>328</v>
       </c>
-      <c r="I14" s="17">
+      <c r="I14" s="1">
         <v>325</v>
       </c>
-      <c r="J14" s="17">
+      <c r="J14" s="1">
         <v>325</v>
       </c>
-      <c r="K14" s="17">
+      <c r="K14" s="1">
         <v>390</v>
       </c>
-      <c r="L14" s="17">
+      <c r="L14" s="1">
         <v>363</v>
       </c>
       <c r="M14" s="1">
         <f>X14-L14-K14-J14</f>
         <v>205</v>
       </c>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="17">
+      <c r="Q14" s="1">
         <v>1230</v>
       </c>
-      <c r="R14" s="17">
+      <c r="R14" s="1">
         <v>1335</v>
       </c>
-      <c r="S14" s="17">
+      <c r="S14" s="1">
         <v>2398</v>
       </c>
-      <c r="T14" s="17">
+      <c r="T14" s="1">
         <v>1106</v>
       </c>
-      <c r="U14" s="17">
+      <c r="U14" s="1">
         <v>711</v>
       </c>
-      <c r="V14" s="17">
+      <c r="V14" s="1">
         <v>422</v>
       </c>
-      <c r="W14" s="17">
+      <c r="W14" s="1">
         <v>1150</v>
       </c>
-      <c r="X14" s="17">
+      <c r="X14" s="1">
         <v>1283</v>
       </c>
-      <c r="Y14" s="17">
-        <f>Y13*Y32</f>
+      <c r="Y14" s="1">
+        <f t="shared" ref="Y14:AH14" si="13">Y13*Y32</f>
         <v>1407.4144500000002</v>
       </c>
-      <c r="Z14" s="17">
-        <f>Z13*Z32</f>
+      <c r="Z14" s="1">
+        <f t="shared" si="13"/>
         <v>1574.8455060112503</v>
       </c>
-      <c r="AA14" s="17">
-        <f>AA13*AA32</f>
+      <c r="AA14" s="1">
+        <f t="shared" si="13"/>
         <v>1744.3860660496541</v>
       </c>
-      <c r="AB14" s="17">
-        <f>AB13*AB32</f>
+      <c r="AB14" s="1">
+        <f t="shared" si="13"/>
         <v>1916.1128687738621</v>
       </c>
-      <c r="AC14" s="17">
-        <f>AC13*AC32</f>
+      <c r="AC14" s="1">
+        <f t="shared" si="13"/>
         <v>2069.557821060494</v>
       </c>
-      <c r="AD14" s="17">
-        <f>AD13*AD32</f>
+      <c r="AD14" s="1">
+        <f t="shared" si="13"/>
         <v>2221.3067082533812</v>
       </c>
-      <c r="AE14" s="17">
-        <f>AE13*AE32</f>
+      <c r="AE14" s="1">
+        <f t="shared" si="13"/>
         <v>2400.5116432354544</v>
       </c>
-      <c r="AF14" s="17">
-        <f>AF13*AF32</f>
+      <c r="AF14" s="1">
+        <f t="shared" si="13"/>
         <v>2591.4756153069052</v>
       </c>
-      <c r="AG14" s="17">
-        <f>AG13*AG32</f>
+      <c r="AG14" s="1">
+        <f t="shared" si="13"/>
         <v>2794.9088525271604</v>
       </c>
-      <c r="AH14" s="17">
-        <f>AH13*AH32</f>
+      <c r="AH14" s="1">
+        <f t="shared" si="13"/>
         <v>3011.5627633844279</v>
       </c>
-      <c r="AI14" s="17"/>
-      <c r="AJ14" s="17"/>
-      <c r="AK14" s="17"/>
-      <c r="AL14" s="17"/>
-      <c r="AM14" s="17"/>
-      <c r="AN14" s="17"/>
-      <c r="AO14" s="17"/>
-      <c r="AP14" s="17"/>
-      <c r="AQ14" s="17"/>
-      <c r="AR14" s="17"/>
-      <c r="AS14" s="17"/>
-      <c r="AT14" s="17"/>
-      <c r="AU14" s="17"/>
-      <c r="AV14" s="17"/>
-      <c r="AW14" s="17"/>
-      <c r="AX14" s="17"/>
-      <c r="AY14" s="17"/>
-      <c r="AZ14" s="17"/>
-      <c r="BA14" s="17"/>
-      <c r="BB14" s="17"/>
-      <c r="BC14" s="17"/>
-      <c r="BD14" s="17"/>
-      <c r="BE14" s="17"/>
-      <c r="BF14" s="17"/>
-      <c r="BG14" s="17"/>
-      <c r="BH14" s="17"/>
-      <c r="BI14" s="17"/>
-      <c r="BJ14" s="17"/>
-      <c r="BK14" s="17"/>
-      <c r="BL14" s="17"/>
-      <c r="BM14" s="17"/>
-      <c r="BN14" s="17"/>
-      <c r="BO14" s="17"/>
-      <c r="BP14" s="17"/>
-      <c r="BQ14" s="17"/>
-      <c r="BR14" s="17"/>
-      <c r="BS14" s="17"/>
-      <c r="BT14" s="17"/>
-      <c r="BU14" s="17"/>
-      <c r="BV14" s="17"/>
-      <c r="BW14" s="17"/>
-      <c r="BX14" s="17"/>
-      <c r="BY14" s="17"/>
-      <c r="BZ14" s="17"/>
-      <c r="CA14" s="17"/>
-      <c r="CB14" s="17"/>
-      <c r="CC14" s="17"/>
+      <c r="AI14" s="1"/>
+      <c r="AJ14" s="1"/>
+      <c r="AK14" s="1"/>
+      <c r="AL14" s="1"/>
+      <c r="AM14" s="1"/>
+      <c r="AN14" s="1"/>
+      <c r="AO14" s="1"/>
+      <c r="AP14" s="1"/>
+      <c r="AQ14" s="1"/>
+      <c r="AR14" s="1"/>
+      <c r="AS14" s="1"/>
+      <c r="AT14" s="1"/>
+      <c r="AU14" s="1"/>
+      <c r="AV14" s="1"/>
+      <c r="AW14" s="1"/>
+      <c r="AX14" s="1"/>
+      <c r="AY14" s="1"/>
+      <c r="AZ14" s="1"/>
+      <c r="BA14" s="1"/>
+      <c r="BB14" s="1"/>
+      <c r="BC14" s="1"/>
+      <c r="BD14" s="1"/>
+      <c r="BE14" s="1"/>
+      <c r="BF14" s="1"/>
+      <c r="BG14" s="1"/>
+      <c r="BH14" s="1"/>
+      <c r="BI14" s="1"/>
+      <c r="BJ14" s="1"/>
+      <c r="BK14" s="1"/>
+      <c r="BL14" s="1"/>
+      <c r="BM14" s="1"/>
+      <c r="BN14" s="1"/>
+      <c r="BO14" s="1"/>
+      <c r="BP14" s="1"/>
+      <c r="BQ14" s="1"/>
+      <c r="BR14" s="1"/>
+      <c r="BS14" s="1"/>
+      <c r="BT14" s="1"/>
+      <c r="BU14" s="1"/>
+      <c r="BV14" s="1"/>
+      <c r="BW14" s="1"/>
+      <c r="BX14" s="1"/>
+      <c r="BY14" s="1"/>
+      <c r="BZ14" s="1"/>
+      <c r="CA14" s="1"/>
+      <c r="CB14" s="1"/>
+      <c r="CC14" s="1"/>
     </row>
     <row r="15" spans="2:218" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="4">
-        <f>C13-C14</f>
+        <f t="shared" ref="C15:M15" si="14">C13-C14</f>
         <v>1380</v>
       </c>
       <c r="D15" s="4">
-        <f>D13-D14</f>
+        <f t="shared" si="14"/>
         <v>1353</v>
       </c>
       <c r="E15" s="4">
-        <f>E13-E14</f>
+        <f t="shared" si="14"/>
         <v>1688</v>
       </c>
       <c r="F15" s="4">
-        <f>F13-F14</f>
+        <f t="shared" si="14"/>
         <v>1753</v>
       </c>
       <c r="G15" s="4">
-        <f>G13-G14</f>
+        <f t="shared" si="14"/>
         <v>1931</v>
       </c>
       <c r="H15" s="4">
-        <f>H13-H14</f>
+        <f t="shared" si="14"/>
         <v>1947</v>
       </c>
       <c r="I15" s="4">
-        <f>I13-I14</f>
+        <f t="shared" si="14"/>
         <v>2138</v>
       </c>
       <c r="J15" s="4">
-        <f>J13-J14</f>
+        <f t="shared" si="14"/>
         <v>2201</v>
       </c>
       <c r="K15" s="4">
-        <f>K13-K14</f>
+        <f t="shared" si="14"/>
         <v>2291</v>
       </c>
       <c r="L15" s="4">
-        <f>L13-L14</f>
+        <f t="shared" si="14"/>
         <v>2295</v>
       </c>
       <c r="M15" s="4">
-        <f>M13-M14</f>
+        <f t="shared" si="14"/>
         <v>1962</v>
       </c>
       <c r="O15" s="10"/>
       <c r="P15" s="10"/>
       <c r="Q15" s="4">
-        <f>+Q13-Q14</f>
+        <f t="shared" ref="Q15:X15" si="15">+Q13-Q14</f>
         <v>2986</v>
       </c>
       <c r="R15" s="4">
-        <f>+R13-R14</f>
+        <f t="shared" si="15"/>
         <v>3595</v>
       </c>
       <c r="S15" s="4">
-        <f>+S13-S14</f>
+        <f t="shared" si="15"/>
         <v>3682</v>
       </c>
       <c r="T15" s="4">
-        <f>+T13-T14</f>
+        <f t="shared" si="15"/>
         <v>5580</v>
       </c>
       <c r="U15" s="4">
-        <f>+U13-U14</f>
+        <f t="shared" si="15"/>
         <v>5017</v>
       </c>
       <c r="V15" s="4">
-        <f>+V13-V14</f>
+        <f t="shared" si="15"/>
         <v>5595</v>
       </c>
       <c r="W15" s="4">
-        <f>+W13-W14</f>
+        <f t="shared" si="15"/>
         <v>7769</v>
       </c>
       <c r="X15" s="4">
-        <f>+X13-X14</f>
+        <f t="shared" si="15"/>
         <v>8749</v>
       </c>
       <c r="Y15" s="4">
@@ -3054,39 +3263,39 @@
         <v>9418.850550000001</v>
       </c>
       <c r="Z15" s="4">
-        <f t="shared" ref="Z15:AH15" si="7">Z13-Z14</f>
+        <f t="shared" ref="Z15:AH15" si="16">Z13-Z14</f>
         <v>10090.676760738752</v>
       </c>
       <c r="AA15" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>10715.514405733589</v>
       </c>
       <c r="AB15" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>11298.458640011395</v>
       </c>
       <c r="AC15" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>11727.494319342801</v>
       </c>
       <c r="AD15" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>12587.404680102492</v>
       </c>
       <c r="AE15" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>13602.899311667574</v>
       </c>
       <c r="AF15" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>14685.028486739129</v>
       </c>
       <c r="AG15" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>15837.816830987244</v>
       </c>
       <c r="AH15" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>17065.522325845093</v>
       </c>
       <c r="AI15" s="4">
@@ -3494,336 +3703,334 @@
         <v>10286.099963728098</v>
       </c>
     </row>
-    <row r="16" spans="2:218" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="18" t="s">
+    <row r="16" spans="2:218" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="1">
         <v>916</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="1">
         <v>917</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="1">
         <v>919</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="1">
         <v>922</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G16" s="1">
         <v>923</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H16" s="1">
         <v>923</v>
       </c>
-      <c r="I16" s="17">
+      <c r="I16" s="1">
         <v>924</v>
       </c>
-      <c r="J16" s="17">
+      <c r="J16" s="1">
         <v>923</v>
       </c>
-      <c r="K16" s="17">
+      <c r="K16" s="1">
         <v>920</v>
       </c>
-      <c r="L16" s="17">
+      <c r="L16" s="1">
         <v>913</v>
       </c>
-      <c r="M16" s="17">
+      <c r="M16" s="1">
         <v>916</v>
       </c>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="17">
+      <c r="Q16" s="1">
         <v>1030</v>
       </c>
-      <c r="R16" s="17">
+      <c r="R16" s="1">
         <v>1003</v>
       </c>
-      <c r="S16" s="17">
+      <c r="S16" s="1">
         <v>991</v>
       </c>
-      <c r="T16" s="17">
+      <c r="T16" s="1">
         <v>970</v>
       </c>
-      <c r="U16" s="17">
+      <c r="U16" s="1">
         <v>936</v>
       </c>
-      <c r="V16" s="17">
+      <c r="V16" s="1">
         <v>921</v>
       </c>
-      <c r="W16" s="17">
+      <c r="W16" s="1">
         <v>923</v>
       </c>
-      <c r="X16" s="17">
+      <c r="X16" s="1">
         <v>916</v>
       </c>
-      <c r="Y16" s="17"/>
-      <c r="Z16" s="17"/>
-      <c r="AA16" s="17"/>
-      <c r="AB16" s="17"/>
-      <c r="AC16" s="17"/>
-      <c r="AD16" s="17"/>
-      <c r="AE16" s="17"/>
-      <c r="AF16" s="17"/>
-      <c r="AG16" s="17"/>
-      <c r="AH16" s="17"/>
-      <c r="AI16" s="17"/>
-      <c r="AJ16" s="17"/>
-      <c r="AK16" s="17"/>
-      <c r="AL16" s="17"/>
-      <c r="AM16" s="17"/>
-      <c r="AN16" s="17"/>
-      <c r="AO16" s="17"/>
-      <c r="AP16" s="17"/>
-      <c r="AQ16" s="17"/>
-      <c r="AR16" s="17"/>
-      <c r="AS16" s="17"/>
-      <c r="AT16" s="17"/>
-      <c r="AU16" s="17"/>
-      <c r="AV16" s="17"/>
-      <c r="AW16" s="17"/>
-      <c r="AX16" s="17"/>
-      <c r="AY16" s="17"/>
-      <c r="AZ16" s="17"/>
-      <c r="BA16" s="17"/>
-      <c r="BB16" s="17"/>
-      <c r="BC16" s="17"/>
-      <c r="BD16" s="17"/>
-      <c r="BE16" s="17"/>
-      <c r="BF16" s="17"/>
-      <c r="BG16" s="17"/>
-      <c r="BH16" s="17"/>
-      <c r="BI16" s="17"/>
-      <c r="BJ16" s="17"/>
-      <c r="BK16" s="17"/>
-      <c r="BL16" s="17"/>
-      <c r="BM16" s="17"/>
-      <c r="BN16" s="17"/>
-      <c r="BO16" s="17"/>
-      <c r="BP16" s="17"/>
-      <c r="BQ16" s="17"/>
-      <c r="BR16" s="17"/>
-      <c r="BS16" s="17"/>
-      <c r="BT16" s="17"/>
-      <c r="BU16" s="17"/>
-      <c r="BV16" s="17"/>
-      <c r="BW16" s="17"/>
-      <c r="BX16" s="17"/>
-      <c r="BY16" s="17"/>
-      <c r="BZ16" s="17"/>
-      <c r="CA16" s="17"/>
-      <c r="CB16" s="17"/>
-      <c r="CC16" s="17"/>
-      <c r="CD16" s="17"/>
-      <c r="CE16" s="17"/>
-      <c r="CF16" s="17"/>
-      <c r="CG16" s="17"/>
-      <c r="CH16" s="17"/>
-      <c r="CI16" s="17"/>
-      <c r="CJ16" s="17"/>
-      <c r="CK16" s="17"/>
-      <c r="CL16" s="17"/>
-      <c r="CM16" s="17"/>
-      <c r="CN16" s="17"/>
-      <c r="CO16" s="17"/>
-      <c r="CP16" s="17"/>
-      <c r="CQ16" s="17"/>
-      <c r="CR16" s="17"/>
-      <c r="CS16" s="17"/>
-      <c r="CT16" s="17"/>
-      <c r="CU16" s="17"/>
-      <c r="CV16" s="17"/>
-      <c r="CW16" s="17"/>
-      <c r="CX16" s="17"/>
-      <c r="CY16" s="17"/>
-      <c r="CZ16" s="17"/>
-      <c r="DA16" s="17"/>
-      <c r="DB16" s="17"/>
-      <c r="DC16" s="17"/>
-      <c r="DD16" s="17"/>
-      <c r="DE16" s="17"/>
-      <c r="DF16" s="17"/>
-      <c r="DG16" s="17"/>
-      <c r="DH16" s="17"/>
-      <c r="DI16" s="17"/>
-      <c r="DJ16" s="17"/>
-      <c r="DK16" s="17"/>
-      <c r="DL16" s="17"/>
-      <c r="DM16" s="17"/>
-      <c r="DN16" s="17"/>
-      <c r="DO16" s="17"/>
-      <c r="DP16" s="17"/>
-      <c r="DQ16" s="17"/>
-      <c r="DR16" s="17"/>
-      <c r="DS16" s="17"/>
-      <c r="DT16" s="17"/>
-      <c r="DU16" s="17"/>
-      <c r="DV16" s="17"/>
-      <c r="DW16" s="17"/>
-      <c r="DX16" s="17"/>
-      <c r="DY16" s="17"/>
-      <c r="DZ16" s="17"/>
-      <c r="EA16" s="17"/>
-      <c r="EB16" s="17"/>
-      <c r="EC16" s="17"/>
-      <c r="ED16" s="17"/>
-      <c r="EE16" s="17"/>
-      <c r="EF16" s="17"/>
-      <c r="EG16" s="17"/>
-      <c r="EH16" s="17"/>
-      <c r="EI16" s="17"/>
-      <c r="EJ16" s="17"/>
-      <c r="EK16" s="17"/>
-      <c r="EL16" s="17"/>
-      <c r="EM16" s="17"/>
-      <c r="EN16" s="17"/>
-      <c r="EO16" s="17"/>
-      <c r="EP16" s="17"/>
-      <c r="EQ16" s="17"/>
-      <c r="ER16" s="17"/>
-      <c r="ES16" s="17"/>
-      <c r="ET16" s="17"/>
-      <c r="EU16" s="17"/>
-      <c r="EV16" s="17"/>
-      <c r="EW16" s="17"/>
-      <c r="EX16" s="17"/>
-      <c r="EY16" s="17"/>
-      <c r="EZ16" s="17"/>
-      <c r="FA16" s="17"/>
-      <c r="FB16" s="17"/>
-      <c r="FC16" s="17"/>
-      <c r="FD16" s="17"/>
-      <c r="FE16" s="17"/>
-      <c r="FF16" s="17"/>
-      <c r="FG16" s="17"/>
-      <c r="FH16" s="17"/>
-      <c r="FI16" s="17"/>
-      <c r="FJ16" s="17"/>
-      <c r="FK16" s="17"/>
-      <c r="FL16" s="17"/>
-      <c r="FM16" s="17"/>
-      <c r="FN16" s="17"/>
-      <c r="FO16" s="17"/>
-      <c r="FP16" s="17"/>
-      <c r="FQ16" s="17"/>
-      <c r="FR16" s="17"/>
-      <c r="FS16" s="17"/>
-      <c r="FT16" s="17"/>
-      <c r="FU16" s="17"/>
-      <c r="FV16" s="17"/>
-      <c r="FW16" s="17"/>
-      <c r="FX16" s="17"/>
-      <c r="FY16" s="17"/>
-      <c r="FZ16" s="17"/>
-      <c r="GA16" s="17"/>
-      <c r="GB16" s="17"/>
-      <c r="GC16" s="17"/>
-      <c r="GD16" s="17"/>
-      <c r="GE16" s="17"/>
-      <c r="GF16" s="17"/>
-      <c r="GG16" s="17"/>
-      <c r="GH16" s="17"/>
-      <c r="GI16" s="17"/>
-      <c r="GJ16" s="17"/>
-      <c r="GK16" s="17"/>
-      <c r="GL16" s="17"/>
-      <c r="GM16" s="17"/>
-      <c r="GN16" s="17"/>
-      <c r="GO16" s="17"/>
-      <c r="GP16" s="17"/>
-      <c r="GQ16" s="17"/>
-      <c r="GR16" s="17"/>
-      <c r="GS16" s="17"/>
-      <c r="GT16" s="17"/>
-      <c r="GU16" s="17"/>
-      <c r="GV16" s="17"/>
-      <c r="GW16" s="17"/>
-      <c r="GX16" s="17"/>
-      <c r="GY16" s="17"/>
-      <c r="GZ16" s="17"/>
-      <c r="HA16" s="17"/>
-      <c r="HB16" s="17"/>
-      <c r="HC16" s="17"/>
-      <c r="HD16" s="17"/>
-      <c r="HE16" s="17"/>
-      <c r="HF16" s="17"/>
-      <c r="HG16" s="17"/>
-      <c r="HH16" s="17"/>
-      <c r="HI16" s="17"/>
-      <c r="HJ16" s="17"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1"/>
+      <c r="AF16" s="1"/>
+      <c r="AG16" s="1"/>
+      <c r="AH16" s="1"/>
+      <c r="AI16" s="1"/>
+      <c r="AJ16" s="1"/>
+      <c r="AK16" s="1"/>
+      <c r="AL16" s="1"/>
+      <c r="AM16" s="1"/>
+      <c r="AN16" s="1"/>
+      <c r="AO16" s="1"/>
+      <c r="AP16" s="1"/>
+      <c r="AQ16" s="1"/>
+      <c r="AR16" s="1"/>
+      <c r="AS16" s="1"/>
+      <c r="AT16" s="1"/>
+      <c r="AU16" s="1"/>
+      <c r="AV16" s="1"/>
+      <c r="AW16" s="1"/>
+      <c r="AX16" s="1"/>
+      <c r="AY16" s="1"/>
+      <c r="AZ16" s="1"/>
+      <c r="BA16" s="1"/>
+      <c r="BB16" s="1"/>
+      <c r="BC16" s="1"/>
+      <c r="BD16" s="1"/>
+      <c r="BE16" s="1"/>
+      <c r="BF16" s="1"/>
+      <c r="BG16" s="1"/>
+      <c r="BH16" s="1"/>
+      <c r="BI16" s="1"/>
+      <c r="BJ16" s="1"/>
+      <c r="BK16" s="1"/>
+      <c r="BL16" s="1"/>
+      <c r="BM16" s="1"/>
+      <c r="BN16" s="1"/>
+      <c r="BO16" s="1"/>
+      <c r="BP16" s="1"/>
+      <c r="BQ16" s="1"/>
+      <c r="BR16" s="1"/>
+      <c r="BS16" s="1"/>
+      <c r="BT16" s="1"/>
+      <c r="BU16" s="1"/>
+      <c r="BV16" s="1"/>
+      <c r="BW16" s="1"/>
+      <c r="BX16" s="1"/>
+      <c r="BY16" s="1"/>
+      <c r="BZ16" s="1"/>
+      <c r="CA16" s="1"/>
+      <c r="CB16" s="1"/>
+      <c r="CC16" s="1"/>
+      <c r="CD16" s="1"/>
+      <c r="CE16" s="1"/>
+      <c r="CF16" s="1"/>
+      <c r="CG16" s="1"/>
+      <c r="CH16" s="1"/>
+      <c r="CI16" s="1"/>
+      <c r="CJ16" s="1"/>
+      <c r="CK16" s="1"/>
+      <c r="CL16" s="1"/>
+      <c r="CM16" s="1"/>
+      <c r="CN16" s="1"/>
+      <c r="CO16" s="1"/>
+      <c r="CP16" s="1"/>
+      <c r="CQ16" s="1"/>
+      <c r="CR16" s="1"/>
+      <c r="CS16" s="1"/>
+      <c r="CT16" s="1"/>
+      <c r="CU16" s="1"/>
+      <c r="CV16" s="1"/>
+      <c r="CW16" s="1"/>
+      <c r="CX16" s="1"/>
+      <c r="CY16" s="1"/>
+      <c r="CZ16" s="1"/>
+      <c r="DA16" s="1"/>
+      <c r="DB16" s="1"/>
+      <c r="DC16" s="1"/>
+      <c r="DD16" s="1"/>
+      <c r="DE16" s="1"/>
+      <c r="DF16" s="1"/>
+      <c r="DG16" s="1"/>
+      <c r="DH16" s="1"/>
+      <c r="DI16" s="1"/>
+      <c r="DJ16" s="1"/>
+      <c r="DK16" s="1"/>
+      <c r="DL16" s="1"/>
+      <c r="DM16" s="1"/>
+      <c r="DN16" s="1"/>
+      <c r="DO16" s="1"/>
+      <c r="DP16" s="1"/>
+      <c r="DQ16" s="1"/>
+      <c r="DR16" s="1"/>
+      <c r="DS16" s="1"/>
+      <c r="DT16" s="1"/>
+      <c r="DU16" s="1"/>
+      <c r="DV16" s="1"/>
+      <c r="DW16" s="1"/>
+      <c r="DX16" s="1"/>
+      <c r="DY16" s="1"/>
+      <c r="DZ16" s="1"/>
+      <c r="EA16" s="1"/>
+      <c r="EB16" s="1"/>
+      <c r="EC16" s="1"/>
+      <c r="ED16" s="1"/>
+      <c r="EE16" s="1"/>
+      <c r="EF16" s="1"/>
+      <c r="EG16" s="1"/>
+      <c r="EH16" s="1"/>
+      <c r="EI16" s="1"/>
+      <c r="EJ16" s="1"/>
+      <c r="EK16" s="1"/>
+      <c r="EL16" s="1"/>
+      <c r="EM16" s="1"/>
+      <c r="EN16" s="1"/>
+      <c r="EO16" s="1"/>
+      <c r="EP16" s="1"/>
+      <c r="EQ16" s="1"/>
+      <c r="ER16" s="1"/>
+      <c r="ES16" s="1"/>
+      <c r="ET16" s="1"/>
+      <c r="EU16" s="1"/>
+      <c r="EV16" s="1"/>
+      <c r="EW16" s="1"/>
+      <c r="EX16" s="1"/>
+      <c r="EY16" s="1"/>
+      <c r="EZ16" s="1"/>
+      <c r="FA16" s="1"/>
+      <c r="FB16" s="1"/>
+      <c r="FC16" s="1"/>
+      <c r="FD16" s="1"/>
+      <c r="FE16" s="1"/>
+      <c r="FF16" s="1"/>
+      <c r="FG16" s="1"/>
+      <c r="FH16" s="1"/>
+      <c r="FI16" s="1"/>
+      <c r="FJ16" s="1"/>
+      <c r="FK16" s="1"/>
+      <c r="FL16" s="1"/>
+      <c r="FM16" s="1"/>
+      <c r="FN16" s="1"/>
+      <c r="FO16" s="1"/>
+      <c r="FP16" s="1"/>
+      <c r="FQ16" s="1"/>
+      <c r="FR16" s="1"/>
+      <c r="FS16" s="1"/>
+      <c r="FT16" s="1"/>
+      <c r="FU16" s="1"/>
+      <c r="FV16" s="1"/>
+      <c r="FW16" s="1"/>
+      <c r="FX16" s="1"/>
+      <c r="FY16" s="1"/>
+      <c r="FZ16" s="1"/>
+      <c r="GA16" s="1"/>
+      <c r="GB16" s="1"/>
+      <c r="GC16" s="1"/>
+      <c r="GD16" s="1"/>
+      <c r="GE16" s="1"/>
+      <c r="GF16" s="1"/>
+      <c r="GG16" s="1"/>
+      <c r="GH16" s="1"/>
+      <c r="GI16" s="1"/>
+      <c r="GJ16" s="1"/>
+      <c r="GK16" s="1"/>
+      <c r="GL16" s="1"/>
+      <c r="GM16" s="1"/>
+      <c r="GN16" s="1"/>
+      <c r="GO16" s="1"/>
+      <c r="GP16" s="1"/>
+      <c r="GQ16" s="1"/>
+      <c r="GR16" s="1"/>
+      <c r="GS16" s="1"/>
+      <c r="GT16" s="1"/>
+      <c r="GU16" s="1"/>
+      <c r="GV16" s="1"/>
+      <c r="GW16" s="1"/>
+      <c r="GX16" s="1"/>
+      <c r="GY16" s="1"/>
+      <c r="GZ16" s="1"/>
+      <c r="HA16" s="1"/>
+      <c r="HB16" s="1"/>
+      <c r="HC16" s="1"/>
+      <c r="HD16" s="1"/>
+      <c r="HE16" s="1"/>
+      <c r="HF16" s="1"/>
+      <c r="HG16" s="1"/>
+      <c r="HH16" s="1"/>
+      <c r="HI16" s="1"/>
+      <c r="HJ16" s="1"/>
     </row>
     <row r="17" spans="1:81" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="14">
-        <f t="shared" ref="C17:M17" si="8">C15/C16</f>
+        <f t="shared" ref="C17:M17" si="17">C15/C16</f>
         <v>1.5065502183406114</v>
       </c>
       <c r="D17" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1.4754634678298801</v>
       </c>
       <c r="E17" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1.8367791077257889</v>
       </c>
       <c r="F17" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1.9013015184381779</v>
       </c>
       <c r="G17" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>2.0920910075839654</v>
       </c>
       <c r="H17" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>2.1094257854821237</v>
       </c>
       <c r="I17" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>2.3138528138528138</v>
       </c>
       <c r="J17" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>2.3846153846153846</v>
       </c>
       <c r="K17" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>2.4902173913043479</v>
       </c>
       <c r="L17" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>2.5136911281489596</v>
       </c>
       <c r="M17" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>2.1419213973799125</v>
       </c>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
       <c r="Q17" s="14">
-        <f t="shared" ref="Q17:V17" si="9">+Q15/Q16</f>
+        <f t="shared" ref="Q17:V17" si="18">+Q15/Q16</f>
         <v>2.8990291262135921</v>
       </c>
       <c r="R17" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>3.5842472582253242</v>
       </c>
       <c r="S17" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>3.715438950554995</v>
       </c>
       <c r="T17" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>5.7525773195876289</v>
       </c>
       <c r="U17" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>5.3600427350427351</v>
       </c>
       <c r="V17" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>6.0749185667752439</v>
       </c>
       <c r="W17" s="14">
@@ -3905,8 +4112,8 @@
         <f>3050+6017</f>
         <v>9067</v>
       </c>
-      <c r="O19" s="21"/>
-      <c r="P19" s="21"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
       <c r="Q19" s="1">
         <f>1000+2218+221</f>
         <v>3439</v>
@@ -3947,8 +4154,8 @@
       <c r="M20" s="1">
         <v>858</v>
       </c>
-      <c r="O20" s="21"/>
-      <c r="P20" s="21"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
       <c r="Q20" s="1">
         <v>736</v>
       </c>
@@ -3981,8 +4188,8 @@
       <c r="M21" s="1">
         <v>9950</v>
       </c>
-      <c r="O21" s="21"/>
-      <c r="P21" s="21"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
       <c r="Q21" s="1">
         <v>5465</v>
       </c>
@@ -4016,8 +4223,8 @@
         <f>500+851+8235</f>
         <v>9586</v>
       </c>
-      <c r="O22" s="21"/>
-      <c r="P22" s="21"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
       <c r="Q22" s="1">
         <f>1000+386+3120</f>
         <v>4506</v>
@@ -4059,22 +4266,22 @@
         <f>+M19-M22</f>
         <v>-519</v>
       </c>
-      <c r="O23" s="21"/>
-      <c r="P23" s="21"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
       <c r="Q23" s="1">
-        <f t="shared" ref="Q23" si="10">+Q19-Q22</f>
+        <f t="shared" ref="Q23" si="19">+Q19-Q22</f>
         <v>-1067</v>
       </c>
       <c r="R23" s="1">
-        <f t="shared" ref="R23" si="11">+R19-R22</f>
+        <f t="shared" ref="R23" si="20">+R19-R22</f>
         <v>-280</v>
       </c>
       <c r="S23" s="1">
-        <f t="shared" ref="S23:T23" si="12">+S19-S22</f>
+        <f t="shared" ref="S23:T23" si="21">+S19-S22</f>
         <v>194</v>
       </c>
       <c r="T23" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>-1062</v>
       </c>
       <c r="U23" s="1">
@@ -4098,45 +4305,45 @@
         <v>8899.850550000001</v>
       </c>
       <c r="Z23" s="1">
-        <f t="shared" ref="Z23:AH23" si="13">+Y23+Z15</f>
+        <f t="shared" ref="Z23:AH23" si="22">+Y23+Z15</f>
         <v>18990.527310738755</v>
       </c>
       <c r="AA23" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>29706.041716472344</v>
       </c>
       <c r="AB23" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>41004.500356483739</v>
       </c>
       <c r="AC23" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>52731.994675826543</v>
       </c>
       <c r="AD23" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>65319.399355929039</v>
       </c>
       <c r="AE23" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>78922.298667596609</v>
       </c>
       <c r="AF23" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>93607.32715433574</v>
       </c>
       <c r="AG23" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>109445.14398532298</v>
       </c>
       <c r="AH23" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>126510.66631116808</v>
       </c>
     </row>
     <row r="24" spans="1:81" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O24" s="21"/>
-      <c r="P24" s="21"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
     </row>
     <row r="25" spans="1:81" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
@@ -4145,8 +4352,8 @@
       <c r="M25" s="1">
         <v>2797</v>
       </c>
-      <c r="O25" s="21"/>
-      <c r="P25" s="21"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="18"/>
       <c r="Q25" s="1">
         <v>551</v>
       </c>
@@ -4180,8 +4387,8 @@
         <f>925+0+54</f>
         <v>979</v>
       </c>
-      <c r="O26" s="21"/>
-      <c r="P26" s="21"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
       <c r="Q26" s="1">
         <f>766+319+48</f>
         <v>1133</v>
@@ -4216,8 +4423,8 @@
       </c>
     </row>
     <row r="27" spans="1:81" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O27" s="21"/>
-      <c r="P27" s="21"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="18"/>
     </row>
     <row r="28" spans="1:81" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="15" t="s">
@@ -4226,31 +4433,31 @@
       <c r="O28" s="16"/>
       <c r="P28" s="16"/>
       <c r="Q28" s="15">
-        <f t="shared" ref="Q28:W28" si="14">Q10+Q26</f>
+        <f t="shared" ref="Q28:W28" si="23">Q10+Q26</f>
         <v>5407</v>
       </c>
       <c r="R28" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>5754</v>
       </c>
       <c r="S28" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>6987</v>
       </c>
       <c r="T28" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>7667</v>
       </c>
       <c r="U28" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>6773</v>
       </c>
       <c r="V28" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>6886</v>
       </c>
       <c r="W28" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>9914</v>
       </c>
       <c r="X28" s="15">
@@ -4320,351 +4527,351 @@
       <c r="CB29" s="1"/>
       <c r="CC29" s="1"/>
     </row>
-    <row r="30" spans="1:81" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="22" t="s">
+    <row r="30" spans="1:81" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="22">
-        <f>C5/C3</f>
+      <c r="C30" s="19">
+        <f t="shared" ref="C30:M30" si="24">C5/C3</f>
         <v>0.64279098487187403</v>
       </c>
-      <c r="D30" s="22">
-        <f>D5/D3</f>
+      <c r="D30" s="19">
+        <f t="shared" si="24"/>
         <v>0.64265129682997113</v>
       </c>
-      <c r="E30" s="22">
-        <f>E5/E3</f>
+      <c r="E30" s="19">
+        <f t="shared" si="24"/>
         <v>0.64916584887144257</v>
       </c>
-      <c r="F30" s="22">
-        <f>F5/F3</f>
+      <c r="F30" s="19">
+        <f t="shared" si="24"/>
         <v>0.65213336442061087</v>
       </c>
-      <c r="G30" s="22">
-        <f>G5/G3</f>
+      <c r="G30" s="19">
+        <f t="shared" si="24"/>
         <v>0.67183406113537114</v>
       </c>
-      <c r="H30" s="22">
-        <f>H5/H3</f>
+      <c r="H30" s="19">
+        <f t="shared" si="24"/>
         <v>0.67887141934094331</v>
       </c>
-      <c r="I30" s="22">
-        <f>I5/I3</f>
+      <c r="I30" s="19">
+        <f t="shared" si="24"/>
         <v>0.69329470198675491</v>
       </c>
-      <c r="J30" s="22">
-        <f>J5/J3</f>
+      <c r="J30" s="19">
+        <f t="shared" si="24"/>
         <v>0.70173292558613665</v>
       </c>
-      <c r="K30" s="22">
-        <f>K5/K3</f>
+      <c r="K30" s="19">
+        <f t="shared" si="24"/>
         <v>0.69551036070606298</v>
       </c>
-      <c r="L30" s="22">
-        <f>L5/L3</f>
+      <c r="L30" s="19">
+        <f t="shared" si="24"/>
         <v>0.69013547033008971</v>
       </c>
-      <c r="M30" s="22">
-        <f>M5/M3</f>
+      <c r="M30" s="19">
+        <f t="shared" si="24"/>
         <v>0.66102783725910064</v>
       </c>
-      <c r="O30" s="23"/>
-      <c r="P30" s="23"/>
-      <c r="Q30" s="22">
-        <f>+Q5/Q3</f>
+      <c r="O30" s="20"/>
+      <c r="P30" s="20"/>
+      <c r="Q30" s="19">
+        <f t="shared" ref="Q30:X30" si="25">+Q5/Q3</f>
         <v>0.58153846153846156</v>
       </c>
-      <c r="R30" s="22">
-        <f>+R5/R3</f>
+      <c r="R30" s="19">
+        <f t="shared" si="25"/>
         <v>0.61630516080777864</v>
       </c>
-      <c r="S30" s="22">
-        <f>+S5/S3</f>
+      <c r="S30" s="19">
+        <f t="shared" si="25"/>
         <v>0.64260410400374302</v>
       </c>
-      <c r="T30" s="22">
-        <f>+T5/T3</f>
+      <c r="T30" s="19">
+        <f t="shared" si="25"/>
         <v>0.65110238215914851</v>
       </c>
-      <c r="U30" s="22">
-        <f>+U5/U3</f>
+      <c r="U30" s="19">
+        <f t="shared" si="25"/>
         <v>0.63714106931794479</v>
       </c>
-      <c r="V30" s="22">
-        <f>+V5/V3</f>
+      <c r="V30" s="19">
+        <f t="shared" si="25"/>
         <v>0.64096535509300878</v>
       </c>
-      <c r="W30" s="22">
-        <f>+W5/W3</f>
+      <c r="W30" s="19">
+        <f t="shared" si="25"/>
         <v>0.67466201482773658</v>
       </c>
-      <c r="X30" s="22">
-        <f>+X5/X3</f>
+      <c r="X30" s="19">
+        <f t="shared" si="25"/>
         <v>0.68758737767126021</v>
       </c>
-      <c r="Y30" s="22">
+      <c r="Y30" s="19">
         <v>0.68</v>
       </c>
-      <c r="Z30" s="22">
+      <c r="Z30" s="19">
         <v>0.67</v>
       </c>
-      <c r="AA30" s="22">
+      <c r="AA30" s="19">
         <v>0.66</v>
       </c>
-      <c r="AB30" s="22">
+      <c r="AB30" s="19">
         <v>0.65</v>
       </c>
-      <c r="AC30" s="22">
+      <c r="AC30" s="19">
         <v>0.65</v>
       </c>
-      <c r="AD30" s="22">
+      <c r="AD30" s="19">
         <v>0.65</v>
       </c>
-      <c r="AE30" s="22">
+      <c r="AE30" s="19">
         <v>0.65</v>
       </c>
-      <c r="AF30" s="22">
+      <c r="AF30" s="19">
         <v>0.65</v>
       </c>
-      <c r="AG30" s="22">
+      <c r="AG30" s="19">
         <v>0.65</v>
       </c>
-      <c r="AH30" s="22">
+      <c r="AH30" s="19">
         <v>0.65</v>
       </c>
     </row>
-    <row r="31" spans="1:81" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="22" t="s">
+    <row r="31" spans="1:81" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="22">
-        <f>C10/C3</f>
+      <c r="C31" s="19">
+        <f t="shared" ref="C31:M31" si="26">C10/C3</f>
         <v>0.37912936091386229</v>
       </c>
-      <c r="D31" s="22">
-        <f>D10/D3</f>
+      <c r="D31" s="19">
+        <f t="shared" si="26"/>
         <v>0.42153523709719676</v>
       </c>
-      <c r="E31" s="22">
-        <f>E10/E3</f>
+      <c r="E31" s="19">
+        <f t="shared" si="26"/>
         <v>0.44479882237487733</v>
       </c>
-      <c r="F31" s="22">
-        <f>F10/F3</f>
+      <c r="F31" s="19">
+        <f t="shared" si="26"/>
         <v>0.45208673350431339</v>
       </c>
-      <c r="G31" s="22">
-        <f>G10/G3</f>
+      <c r="G31" s="19">
+        <f t="shared" si="26"/>
         <v>0.4831877729257642</v>
       </c>
-      <c r="H31" s="22">
-        <f>H10/H3</f>
+      <c r="H31" s="19">
+        <f t="shared" si="26"/>
         <v>0.49644626319190177</v>
       </c>
-      <c r="I31" s="22">
-        <f>I10/I3</f>
+      <c r="I31" s="19">
+        <f t="shared" si="26"/>
         <v>0.51800496688741726</v>
       </c>
-      <c r="J31" s="22">
-        <f>J10/J3</f>
+      <c r="J31" s="19">
+        <f t="shared" si="26"/>
         <v>0.52252803261977576</v>
       </c>
-      <c r="K31" s="22">
-        <f>K10/K3</f>
+      <c r="K31" s="19">
+        <f t="shared" si="26"/>
         <v>0.52244819646968532</v>
       </c>
-      <c r="L31" s="22">
-        <f>L10/L3</f>
+      <c r="L31" s="19">
+        <f t="shared" si="26"/>
         <v>0.51097118870444569</v>
       </c>
-      <c r="M31" s="22">
-        <f>M10/M3</f>
+      <c r="M31" s="19">
+        <f t="shared" si="26"/>
         <v>0.46595289079229124</v>
       </c>
-      <c r="O31" s="23"/>
-      <c r="P31" s="23"/>
-      <c r="Q31" s="22">
-        <f>Q10/Q3</f>
+      <c r="O31" s="20"/>
+      <c r="P31" s="20"/>
+      <c r="Q31" s="19">
+        <f t="shared" ref="Q31:X31" si="27">Q10/Q3</f>
         <v>0.32876923076923076</v>
       </c>
-      <c r="R31" s="22">
-        <f>R10/R3</f>
+      <c r="R31" s="19">
+        <f t="shared" si="27"/>
         <v>0.35893792071802544</v>
       </c>
-      <c r="S31" s="22">
-        <f>S10/S3</f>
+      <c r="S31" s="19">
+        <f t="shared" si="27"/>
         <v>0.40659046855156739</v>
       </c>
-      <c r="T31" s="22">
-        <f>T10/T3</f>
+      <c r="T31" s="19">
+        <f t="shared" si="27"/>
         <v>0.4253041054232134</v>
       </c>
-      <c r="U31" s="22">
-        <f>U10/U3</f>
+      <c r="U31" s="19">
+        <f t="shared" si="27"/>
         <v>0.39790029896405477</v>
       </c>
-      <c r="V31" s="22">
-        <f>V10/V3</f>
+      <c r="V31" s="19">
+        <f t="shared" si="27"/>
         <v>0.40757900560127241</v>
       </c>
-      <c r="W31" s="22">
-        <f>W10/W3</f>
+      <c r="W31" s="19">
+        <f t="shared" si="27"/>
         <v>0.48844308765808986</v>
       </c>
-      <c r="X31" s="22">
-        <f>X10/X3</f>
+      <c r="X31" s="19">
+        <f t="shared" si="27"/>
         <v>0.50629119233073694</v>
       </c>
-      <c r="Y31" s="22">
+      <c r="Y31" s="19">
         <v>0.5</v>
       </c>
-      <c r="Z31" s="22">
+      <c r="Z31" s="19">
         <v>0.48</v>
       </c>
-      <c r="AA31" s="22">
+      <c r="AA31" s="19">
         <v>0.46</v>
       </c>
-      <c r="AB31" s="22">
+      <c r="AB31" s="19">
         <v>0.44</v>
       </c>
-      <c r="AC31" s="22">
+      <c r="AC31" s="19">
         <v>0.42</v>
       </c>
-      <c r="AD31" s="22">
+      <c r="AD31" s="19">
         <v>0.42</v>
       </c>
-      <c r="AE31" s="22">
+      <c r="AE31" s="19">
         <v>0.42</v>
       </c>
-      <c r="AF31" s="22">
+      <c r="AF31" s="19">
         <v>0.42</v>
       </c>
-      <c r="AG31" s="22">
+      <c r="AG31" s="19">
         <v>0.42</v>
       </c>
-      <c r="AH31" s="22">
+      <c r="AH31" s="19">
         <v>0.42</v>
       </c>
     </row>
-    <row r="32" spans="1:81" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="24" t="s">
+    <row r="32" spans="1:81" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="B32" s="24" t="s">
+      <c r="B32" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="24">
-        <f>+C14/C13</f>
+      <c r="C32" s="21">
+        <f t="shared" ref="C32:M32" si="28">+C14/C13</f>
         <v>-7.8967943706020324E-2</v>
       </c>
-      <c r="D32" s="24">
-        <f>+D14/D13</f>
+      <c r="D32" s="21">
+        <f t="shared" si="28"/>
         <v>0.14744801512287334</v>
       </c>
-      <c r="E32" s="24">
-        <f>+E14/E13</f>
+      <c r="E32" s="21">
+        <f t="shared" si="28"/>
         <v>0.12402698495070057</v>
       </c>
-      <c r="F32" s="24">
-        <f>+F14/F13</f>
+      <c r="F32" s="21">
+        <f t="shared" si="28"/>
         <v>9.5925734914904595E-2</v>
       </c>
-      <c r="G32" s="24">
-        <f>+G14/G13</f>
+      <c r="G32" s="21">
+        <f t="shared" si="28"/>
         <v>0.13871543264942016</v>
       </c>
-      <c r="H32" s="24">
-        <f>+H14/H13</f>
+      <c r="H32" s="21">
+        <f t="shared" si="28"/>
         <v>0.14417582417582417</v>
       </c>
-      <c r="I32" s="24">
-        <f>+I14/I13</f>
+      <c r="I32" s="21">
+        <f t="shared" si="28"/>
         <v>0.13195290296386519</v>
       </c>
-      <c r="J32" s="24">
-        <f>+J14/J13</f>
+      <c r="J32" s="21">
+        <f t="shared" si="28"/>
         <v>0.12866191607284244</v>
       </c>
-      <c r="K32" s="24">
-        <f>+K14/K13</f>
+      <c r="K32" s="21">
+        <f t="shared" si="28"/>
         <v>0.14546810891458412</v>
       </c>
-      <c r="L32" s="24">
-        <f>+L14/L13</f>
+      <c r="L32" s="21">
+        <f t="shared" si="28"/>
         <v>0.13656884875846501</v>
       </c>
-      <c r="M32" s="24">
-        <f>+M14/M13</f>
+      <c r="M32" s="21">
+        <f t="shared" si="28"/>
         <v>9.4600830641439773E-2</v>
       </c>
-      <c r="O32" s="25"/>
-      <c r="P32" s="25"/>
-      <c r="Q32" s="24">
-        <f>+Q14/Q13</f>
+      <c r="O32" s="22"/>
+      <c r="P32" s="22"/>
+      <c r="Q32" s="21">
+        <f t="shared" ref="Q32:X32" si="29">+Q14/Q13</f>
         <v>0.29174573055028463</v>
       </c>
-      <c r="R32" s="24">
-        <f>+R14/R13</f>
+      <c r="R32" s="21">
+        <f t="shared" si="29"/>
         <v>0.27079107505070993</v>
       </c>
-      <c r="S32" s="24">
-        <f>+S14/S13</f>
+      <c r="S32" s="21">
+        <f t="shared" si="29"/>
         <v>0.39440789473684212</v>
       </c>
-      <c r="T32" s="24">
-        <f>+T14/T13</f>
+      <c r="T32" s="21">
+        <f t="shared" si="29"/>
         <v>0.16542028118456475</v>
       </c>
-      <c r="U32" s="24">
-        <f>+U14/U13</f>
+      <c r="U32" s="21">
+        <f t="shared" si="29"/>
         <v>0.12412709497206705</v>
       </c>
-      <c r="V32" s="24">
-        <f>+V14/V13</f>
+      <c r="V32" s="21">
+        <f t="shared" si="29"/>
         <v>7.0134618580688049E-2</v>
       </c>
-      <c r="W32" s="24">
-        <f>+W14/W13</f>
+      <c r="W32" s="21">
+        <f t="shared" si="29"/>
         <v>0.12893822177374145</v>
       </c>
-      <c r="X32" s="24">
-        <f>+X14/X13</f>
+      <c r="X32" s="21">
+        <f t="shared" si="29"/>
         <v>0.12789074960127592</v>
       </c>
-      <c r="Y32" s="24">
+      <c r="Y32" s="21">
         <v>0.13</v>
       </c>
-      <c r="Z32" s="24">
+      <c r="Z32" s="21">
         <v>0.13500000000000001</v>
       </c>
-      <c r="AA32" s="24">
+      <c r="AA32" s="21">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AB32" s="24">
+      <c r="AB32" s="21">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AC32" s="24">
+      <c r="AC32" s="21">
         <v>0.15</v>
       </c>
-      <c r="AD32" s="24">
+      <c r="AD32" s="21">
         <v>0.15</v>
       </c>
-      <c r="AE32" s="24">
+      <c r="AE32" s="21">
         <v>0.15</v>
       </c>
-      <c r="AF32" s="24">
+      <c r="AF32" s="21">
         <v>0.15</v>
       </c>
-      <c r="AG32" s="24">
+      <c r="AG32" s="21">
         <v>0.15</v>
       </c>
-      <c r="AH32" s="24">
+      <c r="AH32" s="21">
         <v>0.15</v>
       </c>
     </row>
@@ -4673,81 +4880,81 @@
         <v>32</v>
       </c>
       <c r="C33" s="8">
-        <f>C3/C6-1</f>
+        <f t="shared" ref="C33:M33" si="30">C3/C6-1</f>
         <v>7.5461741424802113</v>
       </c>
       <c r="D33" s="8">
-        <f>D3/D6-1</f>
+        <f t="shared" si="30"/>
         <v>8.8886010362694297</v>
       </c>
       <c r="E33" s="8">
-        <f>E3/E6-1</f>
+        <f t="shared" si="30"/>
         <v>9.5051546391752577</v>
       </c>
       <c r="F33" s="8">
-        <f>F3/F6-1</f>
+        <f t="shared" si="30"/>
         <v>10.11139896373057</v>
       </c>
       <c r="G33" s="8">
-        <f>G3/G6-1</f>
+        <f t="shared" si="30"/>
         <v>10.713554987212277</v>
       </c>
       <c r="H33" s="8">
-        <f>H3/H6-1</f>
+        <f t="shared" si="30"/>
         <v>10.966494845360824</v>
       </c>
       <c r="I33" s="8">
-        <f>I3/I6-1</f>
+        <f t="shared" si="30"/>
         <v>11.42159383033419</v>
       </c>
       <c r="J33" s="8">
-        <f>J3/J6-1</f>
+        <f t="shared" si="30"/>
         <v>11.544757033248082</v>
       </c>
       <c r="K33" s="8">
-        <f>K3/K6-1</f>
+        <f t="shared" si="30"/>
         <v>11.589371980676329</v>
       </c>
       <c r="L33" s="8">
-        <f>L3/L6-1</f>
+        <f t="shared" si="30"/>
         <v>11.160092807424594</v>
       </c>
       <c r="M33" s="8">
-        <f>M3/M6-1</f>
+        <f t="shared" si="30"/>
         <v>9.7603686635944698</v>
       </c>
       <c r="O33" s="12"/>
       <c r="P33" s="12"/>
       <c r="Q33" s="8">
-        <f>Q3/Q6-1</f>
+        <f t="shared" ref="Q33:X33" si="31">Q3/Q6-1</f>
         <v>9.15625</v>
       </c>
       <c r="R33" s="8">
-        <f>R3/R6-1</f>
+        <f t="shared" si="31"/>
         <v>8.7591240875912408</v>
       </c>
       <c r="S33" s="8">
-        <f>S3/S6-1</f>
+        <f t="shared" si="31"/>
         <v>8.9210875331564985</v>
       </c>
       <c r="T33" s="8">
-        <f>T3/T6-1</f>
+        <f t="shared" si="31"/>
         <v>9.1244387427838358</v>
       </c>
       <c r="U33" s="8">
-        <f>U3/U6-1</f>
+        <f t="shared" si="31"/>
         <v>8.3154145077720205</v>
       </c>
       <c r="V33" s="8">
-        <f>V3/V6-1</f>
+        <f t="shared" si="31"/>
         <v>8.4516339869281047</v>
       </c>
       <c r="W33" s="8">
-        <f>W3/W6-1</f>
+        <f t="shared" si="31"/>
         <v>10.804375804375804</v>
       </c>
       <c r="X33" s="8">
-        <f>X3/X6-1</f>
+        <f t="shared" si="31"/>
         <v>10.992814371257484</v>
       </c>
     </row>
@@ -4756,262 +4963,265 @@
       <c r="M34" s="1"/>
       <c r="W34" s="1"/>
     </row>
-    <row r="35" spans="1:34" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="24" t="s">
+    <row r="35" spans="1:34" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G35" s="24">
-        <f>G3/C3-1</f>
+      <c r="G35" s="21">
+        <f t="shared" ref="G35:M35" si="32">G3/C3-1</f>
         <v>0.41401667181228774</v>
       </c>
-      <c r="H35" s="24">
-        <f>H3/D3-1</f>
+      <c r="H35" s="21">
+        <f t="shared" si="32"/>
         <v>0.21640031438302332</v>
       </c>
-      <c r="I35" s="24">
-        <f>I3/E3-1</f>
+      <c r="I35" s="21">
+        <f t="shared" si="32"/>
         <v>0.18547595682041207</v>
       </c>
-      <c r="J35" s="24">
-        <f>J3/F3-1</f>
+      <c r="J35" s="21">
+        <f t="shared" si="32"/>
         <v>0.14362322219631607</v>
       </c>
-      <c r="K35" s="24">
-        <f>K3/G3-1</f>
+      <c r="K35" s="21">
+        <f t="shared" si="32"/>
         <v>0.13799126637554582</v>
       </c>
-      <c r="L35" s="24">
-        <f>L3/H3-1</f>
+      <c r="L35" s="21">
+        <f t="shared" si="32"/>
         <v>0.12879603704501408</v>
       </c>
-      <c r="M35" s="24">
-        <f>M3/I3-1</f>
+      <c r="M35" s="21">
+        <f t="shared" si="32"/>
         <v>-3.3526490066225212E-2</v>
       </c>
-      <c r="O35" s="25"/>
-      <c r="P35" s="25"/>
-      <c r="R35" s="24">
-        <f>R3/Q3-1</f>
+      <c r="O35" s="22"/>
+      <c r="P35" s="22"/>
+      <c r="R35" s="21">
+        <f t="shared" ref="R35:X35" si="33">R3/Q3-1</f>
         <v>2.8461538461538538E-2</v>
       </c>
-      <c r="S35" s="24">
-        <f>S3/R3-1</f>
+      <c r="S35" s="21">
+        <f t="shared" si="33"/>
         <v>0.1189977561705311</v>
       </c>
-      <c r="T35" s="24">
-        <f>T3/S3-1</f>
+      <c r="T35" s="21">
+        <f t="shared" si="33"/>
         <v>5.5009691865516963E-2</v>
       </c>
-      <c r="U35" s="24">
-        <f>U3/T3-1</f>
+      <c r="U35" s="21">
+        <f t="shared" si="33"/>
         <v>-8.876077040040542E-2</v>
       </c>
-      <c r="V35" s="24">
-        <f>V3/U3-1</f>
+      <c r="V35" s="21">
+        <f t="shared" si="33"/>
         <v>5.4230689007856991E-3</v>
       </c>
-      <c r="W35" s="24">
-        <f>W3/V3-1</f>
+      <c r="W35" s="21">
+        <f t="shared" si="33"/>
         <v>0.26851531705967768</v>
       </c>
-      <c r="X35" s="24">
-        <f>X3/W3-1</f>
+      <c r="X35" s="21">
+        <f t="shared" si="33"/>
         <v>9.1801133885739183E-2</v>
       </c>
-      <c r="Y35" s="24">
+      <c r="Y35" s="21">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="Z35" s="24">
+      <c r="Z35" s="21">
         <v>0.08</v>
       </c>
-      <c r="AA35" s="24">
+      <c r="AA35" s="21">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AB35" s="24">
+      <c r="AB35" s="21">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AC35" s="24">
+      <c r="AC35" s="21">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="AD35" s="24">
+      <c r="AD35" s="21">
         <v>5.5E-2</v>
       </c>
-      <c r="AE35" s="24">
+      <c r="AE35" s="21">
         <v>5.5E-2</v>
       </c>
-      <c r="AF35" s="24">
+      <c r="AF35" s="21">
         <v>5.5E-2</v>
       </c>
-      <c r="AG35" s="24">
+      <c r="AG35" s="21">
         <v>5.5E-2</v>
       </c>
-      <c r="AH35" s="24">
+      <c r="AH35" s="21">
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:34" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="24" t="s">
+    <row r="36" spans="1:34" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="G36" s="24">
-        <f>G6/C6-1</f>
+      <c r="G36" s="21">
+        <f t="shared" ref="G36:M36" si="34">G6/C6-1</f>
         <v>3.1662269129287601E-2</v>
       </c>
-      <c r="H36" s="24">
-        <f>H6/D6-1</f>
+      <c r="H36" s="21">
+        <f t="shared" si="34"/>
         <v>5.1813471502590858E-3</v>
       </c>
-      <c r="I36" s="24">
-        <f>I6/E6-1</f>
+      <c r="I36" s="21">
+        <f t="shared" si="34"/>
         <v>2.5773195876288568E-3</v>
       </c>
-      <c r="J36" s="24">
-        <f>J6/F6-1</f>
+      <c r="J36" s="21">
+        <f t="shared" si="34"/>
         <v>1.2953367875647714E-2</v>
       </c>
-      <c r="K36" s="24">
-        <f>K6/G6-1</f>
+      <c r="K36" s="21">
+        <f t="shared" si="34"/>
         <v>5.8823529411764719E-2</v>
       </c>
-      <c r="L36" s="24">
-        <f>L6/H6-1</f>
+      <c r="L36" s="21">
+        <f t="shared" si="34"/>
         <v>0.11082474226804129</v>
       </c>
-      <c r="M36" s="24">
-        <f>M6/I6-1</f>
+      <c r="M36" s="21">
+        <f t="shared" si="34"/>
         <v>0.11568123393316188</v>
       </c>
-      <c r="O36" s="25"/>
-      <c r="P36" s="25"/>
-      <c r="R36" s="24">
-        <f>R6/Q6-1</f>
+      <c r="O36" s="22"/>
+      <c r="P36" s="22"/>
+      <c r="R36" s="21">
+        <f t="shared" ref="R36:X36" si="35">R6/Q6-1</f>
         <v>7.03125E-2</v>
       </c>
-      <c r="S36" s="24">
-        <f>S6/R6-1</f>
+      <c r="S36" s="21">
+        <f t="shared" si="35"/>
         <v>0.10072992700729921</v>
       </c>
-      <c r="T36" s="24">
-        <f>T6/S6-1</f>
+      <c r="T36" s="21">
+        <f t="shared" si="35"/>
         <v>3.3819628647214772E-2</v>
       </c>
-      <c r="U36" s="24">
-        <f>U6/T6-1</f>
+      <c r="U36" s="21">
+        <f t="shared" si="35"/>
         <v>-9.6215522771007089E-3</v>
       </c>
-      <c r="V36" s="24">
-        <f>V6/U6-1</f>
+      <c r="V36" s="21">
+        <f t="shared" si="35"/>
         <v>-9.0673575129534001E-3</v>
       </c>
-      <c r="W36" s="24">
-        <f>W6/V6-1</f>
+      <c r="W36" s="21">
+        <f t="shared" si="35"/>
         <v>1.5686274509803866E-2</v>
       </c>
-      <c r="X36" s="24">
-        <f>X6/W6-1</f>
+      <c r="X36" s="21">
+        <f t="shared" si="35"/>
         <v>7.4646074646074645E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:34" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="24" t="s">
+    <row r="37" spans="1:34" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="G37" s="24">
-        <f>G15/D15-1</f>
+      <c r="G37" s="21">
+        <f t="shared" ref="G37:M37" si="36">G15/D15-1</f>
         <v>0.42719881744271992</v>
       </c>
-      <c r="H37" s="24">
-        <f>H15/E15-1</f>
+      <c r="H37" s="21">
+        <f t="shared" si="36"/>
         <v>0.15343601895734604</v>
       </c>
-      <c r="I37" s="24">
-        <f>I15/F15-1</f>
+      <c r="I37" s="21">
+        <f t="shared" si="36"/>
         <v>0.2196235025670279</v>
       </c>
-      <c r="J37" s="24">
-        <f>J15/G15-1</f>
+      <c r="J37" s="21">
+        <f t="shared" si="36"/>
         <v>0.13982392542723976</v>
       </c>
-      <c r="K37" s="24">
-        <f>K15/H15-1</f>
+      <c r="K37" s="21">
+        <f t="shared" si="36"/>
         <v>0.17668207498715982</v>
       </c>
-      <c r="L37" s="24">
-        <f>L15/I15-1</f>
+      <c r="L37" s="21">
+        <f t="shared" si="36"/>
         <v>7.3433115060804521E-2</v>
       </c>
-      <c r="M37" s="24">
-        <f>M15/J15-1</f>
+      <c r="M37" s="21">
+        <f t="shared" si="36"/>
         <v>-0.10858700590640613</v>
       </c>
-      <c r="O37" s="25"/>
-      <c r="P37" s="25"/>
-      <c r="R37" s="24">
-        <f>R15/Q15-1</f>
+      <c r="O37" s="22"/>
+      <c r="P37" s="22"/>
+      <c r="R37" s="21">
+        <f t="shared" ref="R37:AH37" si="37">R15/Q15-1</f>
         <v>0.20395177494976546</v>
       </c>
-      <c r="S37" s="24">
-        <f>S15/R15-1</f>
+      <c r="S37" s="21">
+        <f t="shared" si="37"/>
         <v>2.4200278164116851E-2</v>
       </c>
-      <c r="T37" s="24">
-        <f>T15/S15-1</f>
+      <c r="T37" s="21">
+        <f t="shared" si="37"/>
         <v>0.51548071700162956</v>
       </c>
-      <c r="U37" s="24">
-        <f>U15/T15-1</f>
+      <c r="U37" s="21">
+        <f t="shared" si="37"/>
         <v>-0.10089605734767026</v>
       </c>
-      <c r="V37" s="24">
-        <f>V15/U15-1</f>
+      <c r="V37" s="21">
+        <f t="shared" si="37"/>
         <v>0.11520829180785319</v>
       </c>
-      <c r="W37" s="24">
-        <f>W15/V15-1</f>
+      <c r="W37" s="21">
+        <f t="shared" si="37"/>
         <v>0.38856121537086685</v>
       </c>
-      <c r="X37" s="24">
-        <f>X15/W15-1</f>
+      <c r="X37" s="21">
+        <f t="shared" si="37"/>
         <v>0.12614236066417805</v>
       </c>
-      <c r="Y37" s="24">
-        <f>Y15/X15-1</f>
+      <c r="Y37" s="21">
+        <f t="shared" si="37"/>
         <v>7.6563098639844673E-2</v>
       </c>
-      <c r="Z37" s="24">
-        <f>Z15/Y15-1</f>
+      <c r="Z37" s="21">
+        <f t="shared" si="37"/>
         <v>7.1327834237560062E-2</v>
       </c>
-      <c r="AA37" s="24">
-        <f>AA15/Z15-1</f>
+      <c r="AA37" s="21">
+        <f t="shared" si="37"/>
         <v>6.1922273382691628E-2</v>
       </c>
-      <c r="AB37" s="24">
-        <f>AB15/AA15-1</f>
+      <c r="AB37" s="21">
+        <f t="shared" si="37"/>
         <v>5.4401889839827744E-2</v>
       </c>
-      <c r="AC37" s="24">
-        <f>AC15/AB15-1</f>
+      <c r="AC37" s="21">
+        <f t="shared" si="37"/>
         <v>3.7972938876109641E-2</v>
       </c>
-      <c r="AD37" s="24">
-        <f>AD15/AC15-1</f>
+      <c r="AD37" s="21">
+        <f t="shared" si="37"/>
         <v>7.3324304181618283E-2</v>
       </c>
-      <c r="AE37" s="24">
-        <f>AE15/AD15-1</f>
+      <c r="AE37" s="21">
+        <f t="shared" si="37"/>
         <v>8.067545752066918E-2</v>
       </c>
-      <c r="AF37" s="24">
-        <f>AF15/AE15-1</f>
+      <c r="AF37" s="21">
+        <f t="shared" si="37"/>
         <v>7.955136256455142E-2</v>
       </c>
-      <c r="AG37" s="24">
-        <f>AG15/AF15-1</f>
+      <c r="AG37" s="21">
+        <f t="shared" si="37"/>
         <v>7.8500926660721504E-2</v>
       </c>
-      <c r="AH37" s="24">
-        <f>AH15/AG15-1</f>
+      <c r="AH37" s="21">
+        <f t="shared" si="37"/>
         <v>7.7517343959667473E-2</v>
       </c>
     </row>
@@ -5019,71 +5229,71 @@
       <c r="O38" s="12"/>
       <c r="P38" s="12"/>
     </row>
-    <row r="39" spans="1:34" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="24" t="s">
+    <row r="39" spans="1:34" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="B39" s="24" t="s">
+      <c r="B39" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="O39" s="25"/>
-      <c r="P39" s="25"/>
-      <c r="R39" s="24">
-        <f>-R12/Q23</f>
+      <c r="O39" s="22"/>
+      <c r="P39" s="22"/>
+      <c r="R39" s="21">
+        <f t="shared" ref="R39:X39" si="38">-R12/Q23</f>
         <v>7.4976569821930641E-2</v>
       </c>
-      <c r="S39" s="24">
-        <f>-S12/R23</f>
+      <c r="S39" s="21">
+        <f t="shared" si="38"/>
         <v>0.27857142857142858</v>
       </c>
-      <c r="T39" s="24">
-        <f>-T12/S23</f>
+      <c r="T39" s="21">
+        <f t="shared" si="38"/>
         <v>-0.64432989690721654</v>
       </c>
-      <c r="U39" s="24">
-        <f>-U12/T23</f>
+      <c r="U39" s="21">
+        <f t="shared" si="38"/>
         <v>0.160075329566855</v>
       </c>
-      <c r="V39" s="24">
-        <f>-V12/U23</f>
+      <c r="V39" s="21">
+        <f t="shared" si="38"/>
         <v>0.37698412698412698</v>
       </c>
-      <c r="W39" s="24">
-        <f>-W12/V23</f>
+      <c r="W39" s="21">
+        <f t="shared" si="38"/>
         <v>0.3087248322147651</v>
       </c>
-      <c r="X39" s="24">
-        <f>-X12/W23</f>
+      <c r="X39" s="21">
+        <f t="shared" si="38"/>
         <v>-0.14996496145760335</v>
       </c>
-      <c r="Y39" s="24">
+      <c r="Y39" s="21">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="Z39" s="24">
+      <c r="Z39" s="21">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="AA39" s="24">
+      <c r="AA39" s="21">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="AB39" s="24">
+      <c r="AB39" s="21">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="AC39" s="24">
+      <c r="AC39" s="21">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="AD39" s="24">
+      <c r="AD39" s="21">
         <v>3.925E-2</v>
       </c>
-      <c r="AE39" s="24">
+      <c r="AE39" s="21">
         <v>3.925E-2</v>
       </c>
-      <c r="AF39" s="24">
+      <c r="AF39" s="21">
         <v>3.925E-2</v>
       </c>
-      <c r="AG39" s="24">
+      <c r="AG39" s="21">
         <v>3.925E-2</v>
       </c>
-      <c r="AH39" s="24">
+      <c r="AH39" s="21">
         <v>3.925E-2</v>
       </c>
     </row>
@@ -5122,7 +5332,7 @@
       <c r="B2" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="24">
+      <c r="C2" s="21">
         <v>-5.0000000000000001E-3</v>
       </c>
     </row>
@@ -5130,7 +5340,7 @@
       <c r="B3" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="21">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
